--- a/src/case_study_Enjoy_Galaxy/feature-introduction.xlsx
+++ b/src/case_study_Enjoy_Galaxy/feature-introduction.xlsx
@@ -1,53 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codegym\Codegym-Module-2-Advanced-Programming-with-Java\src\case_study_Enjoy_Galaxy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7755"/>
+    <workbookView windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
+    <t>TÍNH NĂNG CƠ BẢN</t>
+  </si>
+  <si>
+    <t>TÍNH NĂNG MỞ RỘNG TƯƠNG ỨNG</t>
+  </si>
+  <si>
+    <t>Đăng ký tài khoản khách hàng(FullName, SĐT, Email, Password)</t>
+  </si>
+  <si>
     <t>Tự động đăng nhập sau khi đăng ký</t>
   </si>
   <si>
     <t>Đăng nhập tài khoản</t>
   </si>
   <si>
+    <t>Sử dụng tên đăng nhập là SĐT hoặc Email đều được (phân biệt quyền của tài khoản để đưa tới màn hình tương ứng)</t>
+  </si>
+  <si>
+    <t>Đăng xuất</t>
+  </si>
+  <si>
+    <t>Tìm kiếm phim theo tên dựa trên từ khóa khách hàng nhập</t>
+  </si>
+  <si>
+    <t>Không phân biệt chữ hoa hay chữ thường, có dấu hay không có dấu -&gt; có thể mua vé tại đây</t>
+  </si>
+  <si>
+    <t>Xem danh sách đơn giản các phim đang chiếu</t>
+  </si>
+  <si>
     <t>Sắp xếp theo thời lượng phim</t>
   </si>
   <si>
     <t>Sắp xếp theo ngày khởi chiếu</t>
   </si>
   <si>
-    <t>TÍNH NĂNG CƠ BẢN</t>
+    <t>Xem chi tiết phim -&gt; có thể mua vé tại đây</t>
   </si>
   <si>
     <t>Xem danh sách rạp</t>
   </si>
   <si>
-    <t>TÍNH NĂNG MỞ RỘNG TƯƠNG ỨNG</t>
-  </si>
-  <si>
-    <t>Đăng xuất</t>
+    <t>Chọn rạp -&gt; hiển thị danh sách phim kèm suất chiếu trong ngày -&gt; chọn phim và suất chiếu -&gt; có thể mua vé tại đây</t>
+  </si>
+  <si>
+    <t>Có thể xem thêm danh sách phim kèm suất chiếu của các ngày khác bằng việc chọn ngày -&gt; -&gt; chọn phim và suất chiếu -&gt; có thể mua vé tại đây</t>
+  </si>
+  <si>
+    <t>Xem, sửa thông tin cá nhân</t>
   </si>
   <si>
     <t>Sửa tên, SĐT, email, password</t>
@@ -56,74 +73,204 @@
     <t>Nạp tiền vào tài khoản</t>
   </si>
   <si>
+    <t>Mua vé kiểu 1 (Khi đang xem danh sách phim, chọn phim)</t>
+  </si>
+  <si>
+    <t>Tự động trừ tiền trong tài khoản</t>
+  </si>
+  <si>
+    <t>1. Chọn phim -&gt; chọn rạp -&gt; chọn suất chiếu -&gt; mua vé</t>
+  </si>
+  <si>
+    <t>Nếu không đủ tiền sẽ thông báo và giữ chỗ trong 1 phút, tự động đi tới màn hình nạp tiền</t>
+  </si>
+  <si>
+    <t>Mua vé kiểu 2 (Khi đang xem danh sách rạp)</t>
+  </si>
+  <si>
+    <t>Tự động mua vé thành công sau khi đã nạp đủ tiền</t>
+  </si>
+  <si>
+    <t>2. Chọn rạp -&gt; chọn phim -&gt; chọn suất chiếu -&gt; mua vé</t>
+  </si>
+  <si>
     <t>Kiểm tra vé đang có</t>
   </si>
   <si>
     <t>Xem thông tin vé theo mã vé</t>
-  </si>
-  <si>
-    <t>Tự động trừ tiền trong tài khoản</t>
-  </si>
-  <si>
-    <t>Xem, sửa thông tin cá nhân</t>
-  </si>
-  <si>
-    <t>Tự động mua vé thành công sau khi đã nạp đủ tiền</t>
-  </si>
-  <si>
-    <t>Nếu không đủ tiền sẽ thông báo và giữ chỗ trong 1 phút, tự động đi tới màn hình nạp tiền</t>
-  </si>
-  <si>
-    <t>Sử dụng tên đăng nhập là SĐT hoặc Email đều được (phân biệt quyền của tài khoản để đưa tới màn hình tương ứng)</t>
-  </si>
-  <si>
-    <t>Tìm kiếm phim theo tên dựa trên từ khóa khách hàng nhập</t>
-  </si>
-  <si>
-    <t>Đăng ký tài khoản khách hàng(FullName, SĐT, Email, Password)</t>
-  </si>
-  <si>
-    <t>Xem danh sách đơn giản các phim đang chiếu</t>
-  </si>
-  <si>
-    <t>1. Chọn phim -&gt; chọn rạp -&gt; chọn suất chiếu -&gt; mua vé</t>
-  </si>
-  <si>
-    <t>Mua vé kiểu 2 (Khi đang xem danh sách rạp)</t>
-  </si>
-  <si>
-    <t>Mua vé kiểu 1 (Khi đang xem danh sách phim, chọn phim)</t>
-  </si>
-  <si>
-    <t>2. Chọn rạp -&gt; chọn phim -&gt; chọn suất chiếu -&gt; mua vé</t>
-  </si>
-  <si>
-    <t>Xem chi tiết phim -&gt; có thể mua vé tại đây</t>
-  </si>
-  <si>
-    <t>Không phân biệt chữ hoa hay chữ thường, có dấu hay không có dấu -&gt; có thể mua vé tại đây</t>
-  </si>
-  <si>
-    <t>Chọn rạp -&gt; hiển thị danh sách phim kèm suất chiếu trong ngày -&gt; chọn phim và suất chiếu -&gt; có thể mua vé tại đây</t>
-  </si>
-  <si>
-    <t>Có thể xem thêm danh sách phim kèm suất chiếu của các ngày khác bằng việc chọn ngày -&gt; -&gt; chọn phim và suất chiếu -&gt; có thể mua vé tại đây</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +289,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -153,83 +486,94 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -238,81 +582,350 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -361,7 +974,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -396,7 +1009,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -570,160 +1183,156 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" customWidth="1"/>
-    <col min="2" max="2" width="76.140625" customWidth="1"/>
+    <col min="1" max="1" width="55.5727272727273" customWidth="1"/>
+    <col min="2" max="2" width="76.1363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" ht="29" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="29" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="29" spans="1:2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7" t="s">
+      <c r="B17" s="10" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/case_study_Enjoy_Galaxy/feature-introduction.xlsx
+++ b/src/case_study_Enjoy_Galaxy/feature-introduction.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
+    <sheet name="Admin" sheetId="2" r:id="rId2"/>
+    <sheet name="Staff" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>TÍNH NĂNG CƠ BẢN</t>
   </si>
@@ -76,7 +78,7 @@
     <t>Mua vé kiểu 1 (Khi đang xem danh sách phim, chọn phim)</t>
   </si>
   <si>
-    <t>Tự động trừ tiền trong tài khoản</t>
+    <t>Tính tiền vé dựa trên loại ghế ngồi và loại phòng chiếu, Tự động trừ tiền trong tài khoản</t>
   </si>
   <si>
     <t>1. Chọn phim -&gt; chọn rạp -&gt; chọn suất chiếu -&gt; mua vé</t>
@@ -98,6 +100,36 @@
   </si>
   <si>
     <t>Xem thông tin vé theo mã vé</t>
+  </si>
+  <si>
+    <t>Thêm sửa xóa hiển thị nhân viên</t>
+  </si>
+  <si>
+    <t>Thêm sửa xóa hiển thị phim</t>
+  </si>
+  <si>
+    <t>Thêm sửa xóa ghế</t>
+  </si>
+  <si>
+    <t>thêm sửa xóa hiển thị phòng chiếu</t>
+  </si>
+  <si>
+    <t>thêm sửa xóa hiển thị rạp chiếu</t>
+  </si>
+  <si>
+    <t>thêm suất chiếu theo giờ thực tế, cảnh báo khi bị hổng thời gian giữa 2 suất chiếu</t>
+  </si>
+  <si>
+    <t>kiểm tra doanh thu theo ngày, theo tháng</t>
+  </si>
+  <si>
+    <t>Xem danh sách customer</t>
+  </si>
+  <si>
+    <t>thêm xóa xửa phim</t>
+  </si>
+  <si>
+    <t>checkin và thanh toán vé cho khách</t>
   </si>
 </sst>
 </file>
@@ -105,12 +137,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,24 +158,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,91 +191,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,8 +279,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,25 +316,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,157 +472,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,6 +621,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -614,8 +657,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,188 +703,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -844,6 +869,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1191,8 +1219,8 @@
   <sheetPr/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -1255,21 +1283,21 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" ht="29" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" ht="29" spans="1:2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1282,46 +1310,46 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1335,4 +1363,94 @@
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="91.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D4:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="23.9090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>